--- a/data/MSME Country Indicators - Burkina Faso Summary.xlsx
+++ b/data/MSME Country Indicators - Burkina Faso Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Burkina Faso</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -104,6 +107,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>PAPME</t>
+  </si>
+  <si>
+    <t>Programme d'appui aux Petites et Moyennes Entreprises (PAPME), Edos Ousséini YEYE, "AN EXPERIENCE IN SME/SMI SUPPORT IN BURKINA FASO," Programme d'appui aux Petites et Moyennes Entreprises. Available at http://archives.entreprendre-mediterranee.com/documents/colloque-Acim-tunis-2006/Session4/Yeye-Burkina-Faso.pdf</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -122,6 +131,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -154,26 +169,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -181,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -197,135 +215,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="26">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+    <row r="27">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="28">
+      <c r="A28" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - Burkina Faso Summary.xlsx
+++ b/data/MSME Country Indicators - Burkina Faso Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Burkina Faso</t>
   </si>
@@ -46,6 +46,30 @@
     <t>Source: PAPME, 2006</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -104,9 +128,6 @@
   </si>
   <si>
     <t>http://archives.entreprendre-mediterranee.com/documents/colloque-Acim-tunis-2006/Session4/Yeye-Burkina-Faso.pdf</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>PAPME</t>
@@ -199,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -258,107 +279,174 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
+      <c r="A20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A21" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
+      <c r="A32" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1"/>
+    <hyperlink ref="A34" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - Burkina Faso Summary.xlsx
+++ b/data/MSME Country Indicators - Burkina Faso Summary.xlsx
@@ -270,9 +270,6 @@
       <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">

--- a/data/MSME Country Indicators - Burkina Faso Summary.xlsx
+++ b/data/MSME Country Indicators - Burkina Faso Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Burkina Faso</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>PAPME</t>
-  </si>
-  <si>
-    <t>Programme d'appui aux Petites et Moyennes Entreprises (PAPME), Edos Ousséini YEYE, "AN EXPERIENCE IN SME/SMI SUPPORT IN BURKINA FASO," Programme d'appui aux Petites et Moyennes Entreprises. Available at http://archives.entreprendre-mediterranee.com/documents/colloque-Acim-tunis-2006/Session4/Yeye-Burkina-Faso.pdf</t>
   </si>
 </sst>
 </file>
@@ -220,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,12 +415,12 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -431,20 +428,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/MSME Country Indicators - Burkina Faso Summary.xlsx
+++ b/data/MSME Country Indicators - Burkina Faso Summary.xlsx
@@ -40,7 +40,7 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>2.19</t>
   </si>
   <si>
     <t>Source: PAPME, 2006</t>
